--- a/Documents/Meeting Tracking.xlsx
+++ b/Documents/Meeting Tracking.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\home\Year 2\CO510\Term 2 (Jan Onwards)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adil_\Documents\Computer Science\Year 2\CO510\Term2\GroupWork\27a\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C164FFE-CE9C-4284-8B2C-DC9C911C841A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D2353E-2ECF-4B4A-8E8B-91657AA48CB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E293897E-8EBF-4E9F-923A-8549BB33F108}"/>
   </bookViews>
@@ -278,7 +278,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -684,7 +684,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2394,8 +2394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44F4C73-AD10-409F-A536-9F4A3BF21FD4}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2425,7 +2425,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2473,7 +2473,7 @@
         <v>3</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">

--- a/Documents/Meeting Tracking.xlsx
+++ b/Documents/Meeting Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adil_\Documents\Computer Science\Year 2\CO510\Term2\GroupWork\27a\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D2353E-2ECF-4B4A-8E8B-91657AA48CB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3B94A1-9604-4BFE-B784-6CE712805D66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E293897E-8EBF-4E9F-923A-8549BB33F108}"/>
   </bookViews>
@@ -199,10 +199,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -216,6 +216,15 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -270,15 +279,15 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:f>Sheet1!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -287,6 +296,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -605,10 +623,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$23:$A$27</c:f>
+              <c:f>Sheet1!$A$23:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -622,6 +640,15 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -676,15 +703,15 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$23:$B$27</c:f>
+              <c:f>Sheet1!$B$23:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -693,6 +720,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2392,10 +2428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44F4C73-AD10-409F-A536-9F4A3BF21FD4}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2425,7 +2461,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2452,6 +2488,30 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2</v>
@@ -2473,7 +2533,7 @@
         <v>3</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -2497,6 +2557,30 @@
         <v>3</v>
       </c>
       <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
         <v>0</v>
       </c>
     </row>
